--- a/custom/tpl/RUP-S.xlsx
+++ b/custom/tpl/RUP-S.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\smep19\custom\tpl\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C7A22B-0A0C-45E4-99F7-9EE7F5EF330A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6E8912B7-2977-47E8-9074-5A3240A2D544}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="Lembar1" sheetId="1" r:id="rId1"/>
@@ -90,7 +84,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -227,7 +221,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -279,7 +273,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -473,45 +467,45 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E78A21DD-33B7-408F-A117-6BF205DFD2F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F7" sqref="F7:F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="22.6328125" customWidth="1"/>
-    <col min="4" max="4" width="13.6328125" customWidth="1"/>
-    <col min="5" max="5" width="8.6328125" customWidth="1"/>
-    <col min="6" max="6" width="28.6328125" customWidth="1"/>
-    <col min="7" max="7" width="11.6328125" customWidth="1"/>
-    <col min="8" max="8" width="15.6328125" customWidth="1"/>
-    <col min="9" max="9" width="8.6328125" customWidth="1"/>
-    <col min="10" max="11" width="10.6328125" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="22.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" customWidth="1"/>
+    <col min="6" max="6" width="28.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" customWidth="1"/>
+    <col min="10" max="11" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -519,16 +513,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
@@ -561,7 +555,7 @@
       </c>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -578,7 +572,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -613,7 +607,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
